--- a/Design/DataTable/UpgradeButton.xlsx
+++ b/Design/DataTable/UpgradeButton.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8472" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Button" sheetId="1" r:id="rId4"/>
@@ -19,48 +19,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <x:si>
+    <x:t>Resource</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Category_Num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Passive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워</x:t>
+  </x:si>
   <x:si>
     <x:t>ID</x:t>
   </x:si>
   <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
     <x:t>int</x:t>
   </x:si>
   <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Category_Num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Passive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower</x:t>
-  </x:si>
-  <x:si>
     <x:t>자원</x:t>
   </x:si>
   <x:si>
-    <x:t>Resource</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean</x:t>
-  </x:si>
-  <x:si>
     <x:t>패시브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -68,126 +62,36 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fonts count="7">
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -260,7 +164,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -343,7 +246,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -378,7 +280,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -423,7 +324,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -467,7 +367,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -552,7 +451,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -573,7 +471,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -604,7 +501,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -915,7 +811,7 @@
   <x:dimension ref="A1:D6"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D4" activeCellId="0" sqref="D4:D4"/>
+      <x:selection activeCell="D5" activeCellId="0" sqref="D5:D5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
@@ -926,30 +822,30 @@
   <x:sheetData>
     <x:row r="1" spans="1:4" ht="16.399999999999999">
       <x:c r="A1" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4" ht="16.399999999999999">
       <x:c r="A2" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4" ht="16.399999999999999">
@@ -957,10 +853,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="3">
         <x:v>14</x:v>
@@ -971,10 +867,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D4" s="3">
         <x:v>4</x:v>
@@ -985,13 +881,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>13</x:v>
+      <x:c r="D5" s="3">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">

--- a/Design/DataTable/UpgradeButton.xlsx
+++ b/Design/DataTable/UpgradeButton.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8472" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Button" sheetId="1" r:id="rId4"/>
@@ -21,40 +21,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <x:si>
+    <x:t>Category_Num</x:t>
+  </x:si>
+  <x:si>
     <x:t>Resource</x:t>
   </x:si>
   <x:si>
-    <x:t>Category_Num</x:t>
+    <x:t>자원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패시브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Passive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower</x:t>
   </x:si>
   <x:si>
     <x:t>Korean</x:t>
   </x:si>
   <x:si>
-    <x:t>Tower</x:t>
-  </x:si>
-  <x:si>
     <x:t>Type</x:t>
   </x:si>
   <x:si>
     <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Passive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패시브</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -164,6 +164,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -246,6 +247,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -280,6 +282,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -324,6 +327,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -367,6 +371,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -451,6 +456,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -471,6 +477,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -501,6 +508,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -811,7 +819,7 @@
   <x:dimension ref="A1:D6"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D5" activeCellId="0" sqref="D5:D5"/>
+      <x:selection activeCell="D3" activeCellId="0" sqref="D3:D3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
@@ -822,30 +830,30 @@
   <x:sheetData>
     <x:row r="1" spans="1:4" ht="16.399999999999999">
       <x:c r="A1" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4" ht="16.399999999999999">
       <x:c r="A2" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D2" s="3" t="s">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D2" s="3" t="s">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4" ht="16.399999999999999">
@@ -853,13 +861,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D3" s="3">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4" ht="16.399999999999999">
@@ -867,10 +875,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D4" s="3">
         <x:v>4</x:v>
@@ -881,10 +889,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D5" s="3">
         <x:v>0</x:v>

--- a/Design/DataTable/UpgradeButton.xlsx
+++ b/Design/DataTable/UpgradeButton.xlsx
@@ -21,40 +21,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Resource</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Passive</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower</x:t>
+  </x:si>
+  <x:si>
     <x:t>Category_Num</x:t>
   </x:si>
   <x:si>
-    <x:t>Resource</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
+    <x:t>타워</x:t>
   </x:si>
   <x:si>
     <x:t>패시브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Passive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -819,7 +819,7 @@
   <x:dimension ref="A1:D6"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D3" activeCellId="0" sqref="D3:D3"/>
+      <x:selection activeCell="D5" activeCellId="0" sqref="D5:D5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
@@ -830,30 +830,30 @@
   <x:sheetData>
     <x:row r="1" spans="1:4" ht="16.399999999999999">
       <x:c r="A1" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="D1" s="3" t="s">
-        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4" ht="16.399999999999999">
       <x:c r="A2" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D2" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4" ht="16.399999999999999">
@@ -864,7 +864,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="3">
         <x:v>13</x:v>
@@ -875,10 +875,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="C4" s="3" t="s">
-        <x:v>2</x:v>
       </x:c>
       <x:c r="D4" s="3">
         <x:v>4</x:v>
@@ -892,10 +892,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D5" s="3">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="D5" s="3">
-        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
